--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>模块</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>12.9沉头内六角合金钢高强度 M5*30MM</t>
+  </si>
+  <si>
+    <t>304不锈钢尼龙防松螺母  M5</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=14&amp;id=606065145380&amp;rn=ad256e9e8261740c8efded5c08fb15a7&amp;spm=a1z10.5-b-s.w4011-22768967728.151.735027beHybLjv&amp;skuId=4416359502405</t>
   </si>
   <si>
     <t>PCB</t>
@@ -285,6 +291,14 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -314,14 +328,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,19 +761,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,13 +806,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -818,10 +824,10 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -836,56 +842,56 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,7 +913,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1274,7 +1286,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="13.5" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" ht="13.5" spans="1:6">
+    <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>59</v>
@@ -1784,7 +1796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>61</v>
@@ -1798,11 +1810,11 @@
       <c r="E29" s="2">
         <v>4.7</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="13.5" spans="1:6">
+    <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -1818,7 +1830,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" ht="13.5" spans="1:6">
+    <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>64</v>
@@ -1835,52 +1847,62 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" ht="13.5" spans="1:6">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" ht="13.5" spans="1:6">
-      <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" ht="13.5" spans="1:6">
       <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>68</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1888,7 +1910,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" ht="13.5" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1897,34 +1919,34 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" ht="13.5" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" ht="13.5" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
         <v>56.8</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1932,7 +1954,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" ht="13.5" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1940,21 +1962,29 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="4:5">
-      <c r="D41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="1">
-        <f>SUM(E2:E40)</f>
-        <v>298.35</v>
+    <row r="41" ht="13.5" spans="1:6">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1">
+        <f>SUM(E2:E41)</f>
+        <v>302.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A14:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="F29:F31"/>
   </mergeCells>
   <hyperlinks>
@@ -1985,8 +2015,9 @@
     <hyperlink ref="F24" r:id="rId24" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.61952e8dVH444n&amp;id=600111315253&amp;_u=j29jqmmla28d"/>
     <hyperlink ref="F27" r:id="rId25" display="https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a21n57.1.1997525045.2.3d7b523cxRJ48t"/>
     <hyperlink ref="F29" r:id="rId26" display="https://detail.tmall.com/item.htm?_u=j29jqmmlafcb&amp;id=677749487330&amp;skuId=4860920044837&amp;spm=a1z09.2.0.0.61952e8dVH444n"/>
-    <hyperlink ref="F37" r:id="rId27" display="https://detail.tmall.com/item.htm?_u=j29jqmml000b&amp;id=555578272810&amp;spm=a1z09.2.0.0.61952e8dVH444n"/>
+    <hyperlink ref="F38" r:id="rId27" display="https://detail.tmall.com/item.htm?_u=j29jqmml000b&amp;id=555578272810&amp;spm=a1z09.2.0.0.61952e8dVH444n"/>
     <hyperlink ref="F28" r:id="rId28" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.54c52e8dhvQr17&amp;id=548682226471&amp;_u=j29jqmml20ae"/>
+    <hyperlink ref="F32" r:id="rId29" display="https://detail.tmall.com/item.htm?abbucket=14&amp;id=606065145380&amp;rn=ad256e9e8261740c8efded5c08fb15a7&amp;spm=a1z10.5-b-s.w4011-22768967728.151.735027beHybLjv&amp;skuId=4416359502405"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
